--- a/resource/策划配置/英雄表/heroes.xlsx
+++ b/resource/策划配置/英雄表/heroes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\configMgr\resource\策划配置\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\work\configMgr\resource\策划配置\英雄表\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>ConfHeros/ConfHero</t>
   </si>
@@ -112,6 +112,154 @@
   </si>
   <si>
     <t>蛮锤氏族的大族长、铁炉堡三锤议会的成员</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthDay</t>
+  </si>
+  <si>
+    <t>1981-01-01T00:00:00</t>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>T0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>:00:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>1-01T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+      </rPr>
+      <t>:00:00</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -501,16 +649,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="7" style="3"/>
@@ -518,16 +666,17 @@
     <col min="4" max="4" width="62" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:6" s="2" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -544,8 +693,11 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -562,8 +714,11 @@
       <c r="F3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -580,8 +735,11 @@
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>107</v>
       </c>
@@ -597,8 +755,11 @@
       <c r="F5" s="1">
         <v>30</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>108</v>
       </c>
@@ -614,8 +775,11 @@
       <c r="F6" s="1">
         <v>49</v>
       </c>
+      <c r="G6" s="5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>109</v>
       </c>
@@ -631,8 +795,10 @@
       <c r="F7" s="1">
         <v>34</v>
       </c>
+      <c r="G7" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/策划配置/英雄表/heroes.xlsx
+++ b/resource/策划配置/英雄表/heroes.xlsx
@@ -64,57 +64,14 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>月神殿</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的大祭司、月神的代言人、达纳苏斯的统治者、万年的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灰谷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>保卫者</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>迪亚波罗</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>恐惧魔王、地狱三魔神之一</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>弗斯塔德</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>蛮锤氏族的大族长、铁炉堡三锤议会的成员</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>生日</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -143,6 +100,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-0</t>
     </r>
@@ -161,6 +120,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -179,6 +140,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>T0</t>
     </r>
@@ -197,6 +160,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:00:00</t>
     </r>
@@ -221,6 +186,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1-</t>
     </r>
@@ -239,6 +206,8 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>1-01T</t>
     </r>
@@ -257,17 +226,28 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>:00:00</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hero.Desc.Tyrande</t>
+  </si>
+  <si>
+    <t>Hero.Desc.Diablo</t>
+  </si>
+  <si>
+    <t>Hero.Desc.Falstad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -292,19 +272,6 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -655,7 +622,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -694,7 +661,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -715,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -739,7 +706,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>107</v>
       </c>
@@ -747,7 +714,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5">
         <v>635</v>
@@ -756,7 +723,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -764,10 +731,10 @@
         <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>1060</v>
@@ -776,7 +743,7 @@
         <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -784,10 +751,10 @@
         <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E7" s="1">
         <v>710</v>
@@ -796,7 +763,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resource/策划配置/英雄表/heroes.xlsx
+++ b/resource/策划配置/英雄表/heroes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>ConfHeros/ConfHero</t>
   </si>
@@ -241,6 +241,27 @@
   </si>
   <si>
     <t>Hero.Desc.Falstad</t>
+  </si>
+  <si>
+    <t>英雄品质</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>ENUM/QualificationType</t>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -616,13 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -634,16 +655,17 @@
     <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -663,8 +685,11 @@
       <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="H2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
@@ -684,8 +709,11 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>10</v>
@@ -705,8 +733,11 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>107</v>
       </c>
@@ -725,8 +756,11 @@
       <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="H5" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>108</v>
       </c>
@@ -745,8 +779,11 @@
       <c r="G6" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="H6" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>109</v>
       </c>
@@ -764,6 +801,9 @@
       </c>
       <c r="G7" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/resource/策划配置/英雄表/heroes.xlsx
+++ b/resource/策划配置/英雄表/heroes.xlsx
@@ -27,24 +27,12 @@
     <t>Id</t>
   </si>
   <si>
-    <t>英雄名</t>
-  </si>
-  <si>
-    <t>英雄描述</t>
-  </si>
-  <si>
     <t>英雄血量</t>
   </si>
   <si>
     <t>英雄攻击力</t>
   </si>
   <si>
-    <t>HeroName</t>
-  </si>
-  <si>
-    <t>HeroDesc</t>
-  </si>
-  <si>
     <t>Hp</t>
   </si>
   <si>
@@ -261,6 +249,22 @@
   </si>
   <si>
     <t>史诗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -338,7 +342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -355,6 +359,9 @@
       <alignment horizontal="fill"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -643,7 +650,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -671,22 +678,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -694,47 +701,47 @@
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>7</v>
+      <c r="C3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -742,10 +749,10 @@
         <v>107</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5">
         <v>635</v>
@@ -754,10 +761,10 @@
         <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -765,10 +772,10 @@
         <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>1060</v>
@@ -777,10 +784,10 @@
         <v>49</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -788,10 +795,10 @@
         <v>109</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E7" s="1">
         <v>710</v>
@@ -800,10 +807,10 @@
         <v>34</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/resource/策划配置/英雄表/heroes.xlsx
+++ b/resource/策划配置/英雄表/heroes.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="46">
   <si>
     <t>ConfHeros/ConfHero</t>
   </si>
@@ -33,19 +33,251 @@
     <t>英雄攻击力</t>
   </si>
   <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t>英雄品质</t>
+  </si>
+  <si>
+    <t>可选颜色</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>资源路径</t>
+  </si>
+  <si>
     <t>Hp</t>
   </si>
   <si>
     <t>Attack</t>
   </si>
   <si>
+    <t>BirthDay</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>AvailableColors</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>PrefabPath</t>
+  </si>
+  <si>
     <t>INT</t>
   </si>
   <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
     <t>STRING</t>
   </si>
   <si>
-    <t>FLOAT</t>
+    <t>ENUM/QualificationType</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>1981-01-01T00:00:00</t>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>86</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>T0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:00:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-01T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:00:00</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>史诗</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>泰兰德</t>
@@ -60,211 +292,60 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>生日</t>
+    <t>Hero.Desc.Tyrande</t>
+  </si>
+  <si>
+    <t>Hero.Desc.Diablo</t>
+  </si>
+  <si>
+    <t>Hero.Desc.Falstad</t>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>yrande.prefab</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>BirthDay</t>
-  </si>
-  <si>
-    <t>1981-01-01T00:00:00</t>
-  </si>
-  <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>86</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>T0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:00:00</t>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>iablo.prefab</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>01</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1-01T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:00:00</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hero.Desc.Tyrande</t>
-  </si>
-  <si>
-    <t>Hero.Desc.Diablo</t>
-  </si>
-  <si>
-    <t>Hero.Desc.Falstad</t>
-  </si>
-  <si>
-    <t>英雄品质</t>
-  </si>
-  <si>
-    <t>Quality</t>
-  </si>
-  <si>
-    <t>ENUM/QualificationType</t>
-  </si>
-  <si>
-    <t>传说</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>传说</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>史诗</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字</t>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>alstad.prefab</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -300,7 +381,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,6 +392,46 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
       </patternFill>
+    </fill>
+    <fill>
+      <gradientFill degree="180">
+        <stop position="0">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF87CEFF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FF87CEFF"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill degree="180">
+        <stop position="0">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFEEE685"/>
+        </stop>
+      </gradientFill>
+    </fill>
+    <fill>
+      <gradientFill>
+        <stop position="0">
+          <color rgb="FFFFFFFF"/>
+        </stop>
+        <stop position="1">
+          <color rgb="FFEEE685"/>
+        </stop>
+      </gradientFill>
     </fill>
   </fills>
   <borders count="2">
@@ -342,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -358,10 +479,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -644,173 +774,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:AC7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="7" style="3"/>
-    <col min="3" max="3" width="10" style="1"/>
-    <col min="4" max="4" width="62" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="24.125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="7" style="1"/>
+    <col min="4" max="4" width="8" style="1"/>
+    <col min="5" max="5" width="25.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1"/>
+    <col min="7" max="7" width="17" style="5"/>
+    <col min="8" max="8" width="7" style="7"/>
+    <col min="9" max="12" width="7" style="1"/>
+    <col min="13" max="13" width="7" style="8"/>
+    <col min="14" max="14" width="9" style="7"/>
+    <col min="15" max="18" width="9" style="1"/>
+    <col min="19" max="19" width="9" style="8"/>
+    <col min="20" max="20" width="9" style="7"/>
+    <col min="21" max="24" width="9" style="1"/>
+    <col min="25" max="25" width="9" style="8"/>
+    <col min="26" max="26" width="17" style="6"/>
+    <col min="27" max="27" width="9" style="1"/>
+    <col min="28" max="28" width="9" style="1" customWidth="1"/>
+    <col min="29" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:29" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>21</v>
       </c>
+      <c r="AB3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>107</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="C5" s="9">
         <v>635</v>
       </c>
-      <c r="F5" s="1">
+      <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>23</v>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="9">
+        <v>1</v>
+      </c>
+      <c r="J5" s="9">
+        <f>69/255</f>
+        <v>0.27058823529411763</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0</v>
+      </c>
+      <c r="L5" s="9">
+        <v>1</v>
+      </c>
+      <c r="O5" s="9">
+        <f xml:space="preserve"> 135/255</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="P5" s="9">
+        <f>206/255</f>
+        <v>0.80784313725490198</v>
+      </c>
+      <c r="Q5" s="9">
+        <f>235/255</f>
+        <v>0.92156862745098034</v>
+      </c>
+      <c r="R5" s="9">
+        <v>1</v>
+      </c>
+      <c r="U5" s="9">
+        <v>1</v>
+      </c>
+      <c r="V5" s="9">
+        <f>20/255</f>
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="W5" s="9">
+        <f>147/255</f>
+        <v>0.57647058823529407</v>
+      </c>
+      <c r="X5" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B6" s="3">
         <v>108</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="C6" s="1">
         <v>1060</v>
       </c>
-      <c r="F6" s="1">
+      <c r="D6" s="1">
         <v>49</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>24</v>
+      <c r="E6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="9">
+        <f xml:space="preserve"> 135/255</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="J6" s="9">
+        <f>206/255</f>
+        <v>0.80784313725490198</v>
+      </c>
+      <c r="K6" s="9">
+        <f>235/255</f>
+        <v>0.92156862745098034</v>
+      </c>
+      <c r="L6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1</v>
+      </c>
+      <c r="P6" s="9">
+        <f>20/255</f>
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="Q6" s="9">
+        <f>147/255</f>
+        <v>0.57647058823529407</v>
+      </c>
+      <c r="R6" s="9">
+        <v>1</v>
+      </c>
+      <c r="U6" s="9">
+        <v>1</v>
+      </c>
+      <c r="V6" s="9">
+        <f>69/255</f>
+        <v>0.27058823529411763</v>
+      </c>
+      <c r="W6" s="9">
+        <v>0</v>
+      </c>
+      <c r="X6" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <v>109</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1">
+      <c r="C7" s="1">
         <v>710</v>
       </c>
-      <c r="F7" s="1">
+      <c r="D7" s="1">
         <v>34</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>25</v>
+      <c r="E7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1</v>
+      </c>
+      <c r="J7" s="9">
+        <f>20/255</f>
+        <v>7.8431372549019607E-2</v>
+      </c>
+      <c r="K7" s="9">
+        <f>147/255</f>
+        <v>0.57647058823529407</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1</v>
+      </c>
+      <c r="P7" s="9">
+        <f>69/255</f>
+        <v>0.27058823529411763</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1</v>
+      </c>
+      <c r="U7" s="9">
+        <f xml:space="preserve"> 135/255</f>
+        <v>0.52941176470588236</v>
+      </c>
+      <c r="V7" s="9">
+        <f>206/255</f>
+        <v>0.80784313725490198</v>
+      </c>
+      <c r="W7" s="9">
+        <f>235/255</f>
+        <v>0.92156862745098034</v>
+      </c>
+      <c r="X7" s="9">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
